--- a/docs/shell-generation-for-processing-pages.xlsx
+++ b/docs/shell-generation-for-processing-pages.xlsx
@@ -432,11 +432,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C70" si="0">$B$3*B7</f>
+        <f t="shared" ref="C7:C44" si="0">$B$3*B7</f>
         <v>1200</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D70" si="1">C7+$B$3-1</f>
+        <f t="shared" ref="D7:D43" si="1">C7+$B$3-1</f>
         <v>2399</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1074,5 +1074,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>